--- a/assets/excel/data_server.xlsx
+++ b/assets/excel/data_server.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Devices</t>
   </si>
@@ -71,37 +71,49 @@
     <t>Wireless Adapter</t>
   </si>
   <si>
-    <t>Blade Server</t>
-  </si>
-  <si>
-    <t>Dell</t>
-  </si>
-  <si>
-    <t>Dellet aja</t>
-  </si>
-  <si>
-    <t>Hello22</t>
-  </si>
-  <si>
-    <t>2017-09-14</t>
-  </si>
-  <si>
-    <t>9 Month</t>
-  </si>
-  <si>
-    <t>asdfas dfdf</t>
-  </si>
-  <si>
-    <t>DELLET</t>
-  </si>
-  <si>
-    <t>Bandung Office</t>
-  </si>
-  <si>
-    <t>In Service</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>DELL</t>
+  </si>
+  <si>
+    <t>Power Edge R710</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Month</t>
+  </si>
+  <si>
+    <t>KSS-001</t>
+  </si>
+  <si>
+    <t>Kemana Jakarta</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Power Edge T20</t>
+  </si>
+  <si>
+    <t>KSS-003</t>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t>Tower PC - Intel</t>
+  </si>
+  <si>
+    <t>KSS-002</t>
+  </si>
+  <si>
+    <t>QNAP</t>
+  </si>
+  <si>
+    <t>TS-228 Turbo NAS</t>
+  </si>
+  <si>
+    <t>KSS-004</t>
   </si>
 </sst>
 </file>
@@ -440,7 +452,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,49 +526,131 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="E2">
-        <v>520000</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2"/>
+      <c r="I2" t="s">
         <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
       </c>
       <c r="J2"/>
       <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="L2" t="s">
+      <c r="J3"/>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="M2">
-        <v>7</v>
-      </c>
-      <c r="N2">
-        <v>7</v>
-      </c>
-      <c r="O2">
-        <v>7</v>
-      </c>
-      <c r="P2">
-        <v>7</v>
-      </c>
-      <c r="Q2">
-        <v>7</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="C4" t="s">
         <v>28</v>
       </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
